--- a/tests/integration/data/Renderer003-WsName/template.xlsx
+++ b/tests/integration/data/Renderer003-WsName/template.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-renderer\tests\integration\data\Renderer003-WsName\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-renderer-2\tests\integration\data\Renderer003-WsName\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB30359-0BAD-4E75-A6B7-1A2BBE30DF1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDC2E1E-CD53-43A8-AA3B-2DC3992F3BD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24580" windowHeight="14620" xr2:uid="{DA12C0B8-6741-444F-B263-55021EDA3A25}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24580" windowHeight="14620" activeTab="3" xr2:uid="{DA12C0B8-6741-444F-B263-55021EDA3A25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2 (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2 (3)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>#! FINISHED</t>
   </si>
@@ -434,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE5C9A7-554C-4824-A0F2-3EAE2478AA4A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -528,6 +530,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0691F34-FAC2-4677-AB05-B64ABEAB8AF1}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.90625" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F164914D-E888-4FB3-823E-79BD5138DBC8}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.90625" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C1C16D-DFB5-4D63-A4B9-185F6E6E47FB}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/tests/integration/data/Renderer003-WsName/template.xlsx
+++ b/tests/integration/data/Renderer003-WsName/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-renderer-2\tests\integration\data\Renderer003-WsName\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDC2E1E-CD53-43A8-AA3B-2DC3992F3BD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F298EE38-4CCC-4ADF-B443-96C5DD10BDB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24580" windowHeight="14620" activeTab="3" xr2:uid="{DA12C0B8-6741-444F-B263-55021EDA3A25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" activeTab="9" xr2:uid="{DA12C0B8-6741-444F-B263-55021EDA3A25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Sheet2 (2)" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2 (3)" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet5 (2)" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
-  <si>
-    <t>#! FINISHED</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -68,6 +70,18 @@
   </si>
   <si>
     <t>#! WS_NAME translatedNames.0</t>
+  </si>
+  <si>
+    <t>#! WS_NAME doesntExistProperty</t>
+  </si>
+  <si>
+    <t>#! WS_NAME doesntExistPropertyDuplicate</t>
+  </si>
+  <si>
+    <t>#! WS_NAME doesntExistPropertyButVeryLongAndShouldBeTruncated</t>
+  </si>
+  <si>
+    <t>#! WS_NAME veryLong</t>
   </si>
 </sst>
 </file>
@@ -440,58 +454,81 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" customWidth="1"/>
-    <col min="2" max="2" width="42.90625" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1B4A7F-EA12-4241-9D08-18E72ADB90F7}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -504,24 +541,24 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.90625" customWidth="1"/>
-    <col min="2" max="2" width="40.6328125" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -534,24 +571,24 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.90625" customWidth="1"/>
-    <col min="2" max="2" width="40.6328125" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -563,25 +600,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F164914D-E888-4FB3-823E-79BD5138DBC8}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.90625" customWidth="1"/>
-    <col min="2" max="2" width="40.6328125" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -594,14 +631,106 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFE27C4-0DDF-40CC-B1D8-5D0DC82098DA}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BBFF40-0FA9-4095-9CE3-FF9F035CDFE3}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A666C333-FB23-44BB-9CD3-517F0CE90BC8}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A91C02-0A61-4315-A816-AB1E47B25A0C}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
